--- a/data_table/PassiveEffect.xlsx
+++ b/data_table/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1282,7 +1282,7 @@
         <v>1000</v>
       </c>
       <c r="H4" s="2">
-        <v>4002021</v>
+        <v>14001007</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>

--- a/data_table/PassiveEffect.xlsx
+++ b/data_table/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/PassiveEffect.xlsx
+++ b/data_table/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11820"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,8 @@
 3 普通攻击命中的时候
 4 被普通攻击命中的时候
 5 造成伤害时
-6 收到伤害时</t>
+6 受到伤害时
+7 和单位碰撞时</t>
         </r>
       </text>
     </comment>
@@ -66,10 +67,34 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+0 触发的单位(自身)
 1 正在普通攻击的单位
 2 正在释放技能的单位
 3 被普通攻击命中的单位
 4 被技能效果命中的单位
+5 碰撞的单位</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zxy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+根据 triggerTimeType 类型不同 参数意义也不同：
 </t>
         </r>
       </text>
@@ -79,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -99,6 +124,9 @@
     <t>triggerTargetType</t>
   </si>
   <si>
+    <t>triggerParam</t>
+  </si>
+  <si>
     <t>triggerChance</t>
   </si>
   <si>
@@ -135,6 +163,9 @@
     <t>触发目标类型</t>
   </si>
   <si>
+    <t>触发参数</t>
+  </si>
+  <si>
     <t>触发几率(千分比)</t>
   </si>
   <si>
@@ -151,6 +182,9 @@
   </si>
   <si>
     <t>普通击中时有概率回复生命值</t>
+  </si>
+  <si>
+    <t>测试移动(蛮王旋风斩)</t>
   </si>
 </sst>
 </file>
@@ -316,12 +350,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1147,23 +1181,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="23.75" style="1" customWidth="1"/>
-    <col min="6" max="9" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="28.625" customWidth="1"/>
+    <col min="8" max="10" width="21.625" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1194,72 +1230,81 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:10">
+    <row r="3" ht="93" customHeight="1" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
         <v>21</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1267,10 +1312,10 @@
         <v>18001001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -1278,17 +1323,18 @@
       <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
         <v>1000</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>14001007</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1296,10 +1342,10 @@
         <v>18001002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="6">
         <v>3</v>
@@ -1307,17 +1353,18 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
         <v>500</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>4002022</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:9">
+    <row r="6" spans="3:10">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="6"/>
@@ -1325,17 +1372,39 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="3:9">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="2"/>
+    <row r="7" customFormat="1" spans="1:10">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>18001010</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4001004</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="3:9">
+    <row r="8" spans="3:10">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="6"/>
@@ -1343,8 +1412,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="3:9">
+    <row r="9" spans="3:10">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="6"/>
@@ -1352,8 +1422,9 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="3:9">
+    <row r="10" spans="3:10">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6"/>
@@ -1361,8 +1432,9 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="3:9">
+    <row r="11" spans="3:10">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="6"/>
@@ -1370,6 +1442,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/PassiveEffect.xlsx
+++ b/data_table/PassiveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,16 +67,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0 触发的单位(自身)
-1 正在普通攻击的单位
-2 正在释放技能的单位
-3 被普通攻击命中的单位
-4 被技能效果命中的单位
-5 碰撞的单位</t>
+根据 triggerTimeType 类型不同 参数意义也不同：
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,8 +90,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-根据 triggerTimeType 类型不同 参数意义也不同：
-</t>
+0 触发的单位(自身)
+1 正在普通攻击的单位
+2 正在释放技能的单位
+3 被普通攻击命中的单位 / 将要被普通攻击的单位
+4 被技能效果命中的单位
+5 碰撞的单位</t>
         </r>
       </text>
     </comment>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -121,18 +121,21 @@
     <t>triggerTimeType</t>
   </si>
   <si>
+    <t>triggerParam</t>
+  </si>
+  <si>
+    <t>triggerChance</t>
+  </si>
+  <si>
     <t>triggerTargetType</t>
   </si>
   <si>
-    <t>triggerParam</t>
-  </si>
-  <si>
-    <t>triggerChance</t>
-  </si>
-  <si>
     <t>triggerEffectList</t>
   </si>
   <si>
+    <t>afterTriggerRemoveEffectList</t>
+  </si>
+  <si>
     <t>triggerCD</t>
   </si>
   <si>
@@ -151,40 +154,58 @@
     <t>ID</t>
   </si>
   <si>
-    <t>技能名称</t>
-  </si>
-  <si>
-    <t>技能介绍</t>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>介绍</t>
   </si>
   <si>
     <t>触发的时机类型</t>
   </si>
   <si>
+    <t>触发参数</t>
+  </si>
+  <si>
+    <t>触发几率(千分比)</t>
+  </si>
+  <si>
     <t>触发目标类型</t>
   </si>
   <si>
-    <t>触发参数</t>
-  </si>
-  <si>
-    <t>触发几率(千分比)</t>
-  </si>
-  <si>
     <t>触发效果列表</t>
   </si>
   <si>
+    <t>触发后移除的效果列表</t>
+  </si>
+  <si>
     <t>触发CD(毫秒)</t>
   </si>
   <si>
     <t>触发时候的效果资源id（自身）</t>
   </si>
   <si>
+    <t>普通击中时增加 buff 3层有伤害</t>
+  </si>
+  <si>
     <t>普通击中时增加buff</t>
   </si>
   <si>
     <t>普通击中时有概率回复生命值</t>
   </si>
   <si>
+    <t>上官唯普通攻击命中的时候群攻目标和周围单位</t>
+  </si>
+  <si>
+    <t>普通攻击命中的时候群攻目标和周围单位</t>
+  </si>
+  <si>
     <t>测试移动(蛮王旋风斩)</t>
+  </si>
+  <si>
+    <t>普通击中时增加移速buff</t>
+  </si>
+  <si>
+    <t>普通攻击增加散射的buff</t>
   </si>
 </sst>
 </file>
@@ -350,12 +371,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1181,25 +1202,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="23.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="28.625" customWidth="1"/>
-    <col min="8" max="10" width="21.625" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="7" max="9" width="21.625" customWidth="1"/>
+    <col min="10" max="10" width="28.875" customWidth="1"/>
+    <col min="11" max="11" width="21.625" customWidth="1"/>
+    <col min="12" max="12" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1233,78 +1255,87 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
+      <c r="L2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:11">
+    <row r="3" ht="93" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
         <v>23</v>
       </c>
+      <c r="K3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1312,29 +1343,30 @@
         <v>18001001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="2">
         <v>3</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
-        <v>1000</v>
       </c>
       <c r="I4" s="2">
         <v>14001007</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1342,29 +1374,30 @@
         <v>18001002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="6">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>500</v>
+      </c>
+      <c r="H5" s="2">
         <v>1</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
-        <v>500</v>
       </c>
       <c r="I5" s="2">
         <v>4002022</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:10">
+    <row r="6" customFormat="1" spans="3:11">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="6"/>
@@ -1373,38 +1406,40 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
-    <row r="7" customFormat="1" spans="1:10">
+    <row r="7" customFormat="1" spans="1:11">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>18001010</v>
+        <v>18001003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>1000</v>
+      </c>
       <c r="H7" s="2">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="I7" s="2">
-        <v>4001004</v>
-      </c>
-      <c r="J7" s="2">
+        <v>13001006</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:10">
+    <row r="8" customFormat="1" spans="3:11">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="6"/>
@@ -1413,18 +1448,40 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="3:10">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
+    <row r="9" customFormat="1" spans="1:11">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>18001010</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6">
+        <v>7</v>
+      </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4001004</v>
+      </c>
       <c r="J9" s="2"/>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="3:10">
+    <row r="10" spans="3:11">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6"/>
@@ -1433,16 +1490,80 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="3:10">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
+    <row r="11" customFormat="1" spans="1:11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>18001020</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>14001008</v>
+      </c>
       <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:11">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>18001030</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>13001010</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/PassiveEffect.xlsx
+++ b/data_table/PassiveEffect.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -199,6 +199,9 @@
     <t>普通攻击命中的时候群攻目标和周围单位</t>
   </si>
   <si>
+    <t>上官唯 E 技能移动中碰撞</t>
+  </si>
+  <si>
     <t>测试移动(蛮王旋风斩)</t>
   </si>
   <si>
@@ -206,6 +209,12 @@
   </si>
   <si>
     <t>普通攻击增加散射的buff</t>
+  </si>
+  <si>
+    <t>普通击中时增加 自身攻速 最多 5 层</t>
+  </si>
+  <si>
+    <t>普通击中时增加 buff 3层有群伤害</t>
   </si>
 </sst>
 </file>
@@ -1202,10 +1211,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1439,129 +1448,222 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="3:11">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
+    <row r="8" customFormat="1" spans="1:11">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>18001004</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4001050</v>
+      </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" customFormat="1" spans="1:11">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
+    <row r="9" customFormat="1" spans="3:11">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:11">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <v>18001010</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6">
         <v>7</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
         <v>1000</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10" s="2">
         <v>5</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10" s="2">
         <v>4001004</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:11">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+    <row r="11" spans="3:11">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
-    <row r="11" customFormat="1" spans="1:11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
+    <row r="12" customFormat="1" spans="1:11">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
         <v>18001020</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6">
         <v>3</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
         <v>1000</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I12" s="2">
         <v>14001008</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:11">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+    <row r="13" spans="3:11">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
-    <row r="13" customFormat="1" spans="1:11">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
+    <row r="14" customFormat="1" spans="1:11">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
         <v>18001030</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
         <v>1000</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <v>3</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I14" s="2">
         <v>13001010</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:11">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>18001040</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>14001030</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:11">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>18001041</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>14001031</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data_table/PassiveEffect.xlsx
+++ b/data_table/PassiveEffect.xlsx
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/PassiveEffect.xlsx
+++ b/data_table/PassiveEffect.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -220,7 +233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -236,34 +249,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -280,6 +265,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -289,41 +313,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,7 +366,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,49 +413,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,121 +551,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,21 +604,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -638,6 +636,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,148 +709,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -866,52 +879,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1213,8 +1226,8 @@
   <sheetPr/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/PassiveEffect.xlsx
+++ b/data_table/PassiveEffect.xlsx
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
   </si>
   <si>
     <t>转表符</t>
@@ -1226,8 +1229,8 @@
   <sheetPr/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1307,10 +1310,10 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -1321,40 +1324,40 @@
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1365,10 +1368,10 @@
         <v>18001001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -1396,10 +1399,10 @@
         <v>18001002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6">
         <v>3</v>
@@ -1438,10 +1441,10 @@
         <v>18001003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="6">
         <v>3</v>
@@ -1469,10 +1472,10 @@
         <v>18001004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="6">
         <v>7</v>
@@ -1511,10 +1514,10 @@
         <v>18001010</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="6">
         <v>7</v>
@@ -1553,10 +1556,10 @@
         <v>18001020</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
@@ -1595,10 +1598,10 @@
         <v>18001030</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
@@ -1626,10 +1629,10 @@
         <v>18001040</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="6">
         <v>3</v>
@@ -1657,10 +1660,10 @@
         <v>18001041</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="6">
         <v>3</v>
